--- a/MailCredentials.xlsx
+++ b/MailCredentials.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REST ASSURED\restassured1\restassured\RestAssuredServicesTestProject\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13770" windowHeight="2415"/>
   </bookViews>
   <sheets>
     <sheet name="credentials" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:C6"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,20 +28,28 @@
     <t>password</t>
   </si>
   <si>
-    <t>reshmi.g@thinkpalm.com</t>
+    <t>cicd@thinkpalm.info</t>
   </si>
   <si>
-    <t>Niranjana#26</t>
+    <t>C!Tp(8j%345</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -68,13 +72,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -355,7 +362,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -367,7 +376,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -375,11 +384,15 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2" display="Admin@123"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>